--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="454BC2035AAC" lockStructure="1"/>
+  <workbookProtection workbookPassword="1035A4BBE638" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="454BC2035AAC"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1035A4BBE638"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="1035A4BBE638" lockStructure="1"/>
+  <workbookProtection workbookPassword="10EB1F471032" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1035A4BBE638"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10EB1F471032"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10EB1F471032" lockStructure="1"/>
+  <workbookProtection workbookPassword="4A32EFBF6414" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10EB1F471032"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4A32EFBF6414"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10EB1F471032" lockStructure="1"/>
+  <workbookProtection workbookPassword="B71253A02AE2" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10EB1F471032"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="B71253A02AE2"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="B71253A02AE2" lockStructure="1"/>
+  <workbookProtection workbookPassword="4176FC606BC" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="B71253A02AE2"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4176FC606BC"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="4176FC606BC" lockStructure="1"/>
+  <workbookProtection workbookPassword="108327D1B7AB" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4176FC606BC"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="108327D1B7AB"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10EB1F471032" lockStructure="1"/>
+  <workbookProtection workbookPassword="108327D1B7AB" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10EB1F471032"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="108327D1B7AB"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="4A32EFBF6414" lockStructure="1"/>
+  <workbookProtection workbookPassword="5362723B9597" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="4A32EFBF6414"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5362723B9597"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="AE8701FA081" lockStructure="1"/>
+  <workbookProtection workbookPassword="93E9BE9C69" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="AE8701FA081"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="93E9BE9C69"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="AE8701FA081"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="93E9BE9C69"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="93E9BE9C69" lockStructure="1"/>
+  <workbookProtection workbookPassword="8537CD27259" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="93E9BE9C69"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8537CD27259"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="93E9BE9C69"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8537CD27259"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="43D0049ED5F" lockStructure="1"/>
+  <workbookProtection workbookPassword="88176B1EAC7" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="43D0049ED5F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="88176B1EAC7"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="43D0049ED5F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="88176B1EAC7"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="88176B1EAC7" lockStructure="1"/>
+  <workbookProtection workbookPassword="13F3BEF530405" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="88176B1EAC7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="13F3BEF530405"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="88176B1EAC7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="13F3BEF530405"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="13F3BEF530405" lockStructure="1"/>
+  <workbookProtection workbookPassword="9BC70B3326E3" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="13F3BEF530405"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9BC70B3326E3"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="13F3BEF530405"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9BC70B3326E3"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="43D0049ED5F" lockStructure="1"/>
+  <workbookProtection workbookPassword="B206AE847E0" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="43D0049ED5F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="B206AE847E0"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="43D0049ED5F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="B206AE847E0"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="225538E4C536" lockStructure="1"/>
+  <workbookProtection workbookPassword="27230CEACDB8" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="225538E4C536"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27230CEACDB8"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="225538E4C536"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27230CEACDB8"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="27230CEACDB8" lockStructure="1"/>
+  <workbookProtection workbookPassword="2CE8995BBC9F" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27230CEACDB8"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2CE8995BBC9F"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27230CEACDB8"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2CE8995BBC9F"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2CE8995BBC9F" lockStructure="1"/>
+  <workbookProtection workbookPassword="A060B68AD44" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2CE8995BBC9F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2CE8995BBC9F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="A060B68AD44" lockStructure="1"/>
+  <workbookProtection workbookPassword="10E54F7632EA" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10E54F7632EA"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10E54F7632EA"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10E54F7632EA" lockStructure="1"/>
+  <workbookProtection workbookPassword="BBF55BBE16F" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10E54F7632EA"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10E54F7632EA"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="A060B68AD44" lockStructure="1"/>
+  <workbookProtection workbookPassword="285717656DC2" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="285717656DC2"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A060B68AD44"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="285717656DC2"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="285717656DC2" lockStructure="1"/>
+  <workbookProtection workbookPassword="28187F2E65D9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="285717656DC2"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="28187F2E65D9"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="285717656DC2"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="28187F2E65D9"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="28187F2E65D9" lockStructure="1"/>
+  <workbookProtection workbookPassword="40707080B7DF" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="28187F2E65D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="40707080B7DF"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="28187F2E65D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="40707080B7DF"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="273276DA3AB" lockStructure="1"/>
+  <workbookProtection workbookPassword="105B8D5798D9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="273276DA3AB"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="105B8D5798D9"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="273276DA3AB"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="105B8D5798D9"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="105B8D5798D9" lockStructure="1"/>
+  <workbookProtection workbookPassword="16FFFB1496024" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="105B8D5798D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="16FFFB1496024"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="105B8D5798D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="16FFFB1496024"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="BBF55BBE16F" lockStructure="1"/>
+  <workbookProtection workbookPassword="16FFFB1496024" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="16FFFB1496024"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="16FFFB1496024"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="BBF55BBE16F" lockStructure="1"/>
+  <workbookProtection workbookPassword="2961FC04FE11" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2961FC04FE11"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BBF55BBE16F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2961FC04FE11"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2961FC04FE11" lockStructure="1"/>
+  <workbookProtection workbookPassword="8638DD71F58" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2961FC04FE11"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8638DD71F58"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2961FC04FE11"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8638DD71F58"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="40707080B7DF" lockStructure="1"/>
+  <workbookProtection workbookPassword="217F5F82C1DC9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="40707080B7DF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="217F5F82C1DC9"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="40707080B7DF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="217F5F82C1DC9"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="217F5F82C1DC9" lockStructure="1"/>
+  <workbookProtection workbookPassword="21D8EA2D187B" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="217F5F82C1DC9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="217F5F82C1DC9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="8638DD71F58" lockStructure="1"/>
+  <workbookProtection workbookPassword="2450964A7363" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8638DD71F58"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2450964A7363"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8638DD71F58"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2450964A7363"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2450964A7363" lockStructure="1"/>
+  <workbookProtection workbookPassword="169E50341FB7" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2450964A7363"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169E50341FB7"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2450964A7363"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169E50341FB7"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="169E50341FB7" lockStructure="1"/>
+  <workbookProtection workbookPassword="21D8EA2D187B" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169E50341FB7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169E50341FB7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="21D8EA2D187B" lockStructure="1"/>
+  <workbookProtection workbookPassword="23A62C37BDC5" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="23A62C37BDC5"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="23A62C37BDC5"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="21D8EA2D187B" lockStructure="1"/>
+  <workbookProtection workbookPassword="5824C986CA3" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -31843,7 +31843,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5824C986CA3"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31884,7 +31884,7 @@
       <c r="A2" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21D8EA2D187B"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5824C986CA3"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/corrective-action-plan-template.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="23A62C37BDC5" lockStructure="1"/>
+  <workbookProtection workbookPassword="5F129DAAB5F6" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="UEI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UEI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="reference_number">'Form'!$A$2:$A$3000</definedName>
     <definedName name="planned_action">'Form'!$B$2:$B$3000</definedName>
     <definedName name="contains_chart_or_table">'Form'!$C$2:$C$3000</definedName>
-    <definedName name="auditee_uei">'UEI'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -65,15 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -436,6 +432,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5F129DAAB5F6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31843,7 +31858,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="23A62C37BDC5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5F129DAAB5F6"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -31854,42 +31869,4 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="48" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Auditee UEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="23A62C37BDC5"/>
-  <dataValidations count="1">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
-      <formula1>12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>